--- a/data/population_models/models_summary_kriegberg_female.xlsx
+++ b/data/population_models/models_summary_kriegberg_female.xlsx
@@ -457,7 +457,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>8 [4-21]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -504,7 +504,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>8 [5-18]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -551,7 +551,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>8 [5-18]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -598,7 +598,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>8 [4-23]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>8 [5-18]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -692,7 +692,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>8 [5-18]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>8 [4-22]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>8 [5-18]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -833,7 +833,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>8 [5-18]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -880,7 +880,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>10 [6-22]</t>
+          <t>1 [0-1]</t>
         </is>
       </c>
     </row>
@@ -927,7 +927,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>8 [5-18]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -974,7 +974,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>8 [5-18]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -1021,7 +1021,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>10 [5-22]</t>
+          <t>1 [0-1]</t>
         </is>
       </c>
     </row>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>8 [5-18]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -1115,7 +1115,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>8 [5-18]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -1162,7 +1162,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>10 [6-22]</t>
+          <t>1 [0-1]</t>
         </is>
       </c>
     </row>
@@ -1209,7 +1209,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>8 [5-18]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -1256,7 +1256,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>8 [5-18]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -1303,7 +1303,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>10 [6-22]</t>
+          <t>1 [0-1]</t>
         </is>
       </c>
     </row>
@@ -1350,7 +1350,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>8 [5-18]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -1397,7 +1397,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>8 [5-18]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -1444,7 +1444,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>10 [6-24]</t>
+          <t>1 [0-1]</t>
         </is>
       </c>
     </row>
@@ -1491,7 +1491,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>10 [6-25]</t>
+          <t>1 [0-1]</t>
         </is>
       </c>
     </row>
@@ -1538,7 +1538,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>11 [6-25]</t>
+          <t>1 [0-1]</t>
         </is>
       </c>
     </row>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>10 [6-23]</t>
+          <t>1 [0-1]</t>
         </is>
       </c>
     </row>
@@ -1632,7 +1632,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>10 [6-24]</t>
+          <t>1 [0-1]</t>
         </is>
       </c>
     </row>
@@ -1679,7 +1679,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>10 [6-23]</t>
+          <t>1 [0-1]</t>
         </is>
       </c>
     </row>
@@ -1726,7 +1726,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>8 [4-21]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>8 [5-18]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -1820,7 +1820,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>8 [5-18]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -1867,7 +1867,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>7 [4-17]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -1914,7 +1914,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>6 [4-14]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -1961,7 +1961,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>6 [4-15]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -2008,7 +2008,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>7 [4-17]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -2055,7 +2055,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>6 [4-14]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -2102,7 +2102,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>6 [4-15]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>7 [4-17]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -2196,7 +2196,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>6 [4-14]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -2243,7 +2243,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>6 [4-14]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -2290,7 +2290,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>7 [4-17]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -2337,7 +2337,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>6 [4-14]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -2384,7 +2384,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>6 [4-15]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -2431,7 +2431,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>7 [4-17]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -2478,7 +2478,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>7 [4-15]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -2525,7 +2525,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>7 [4-15]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -2572,7 +2572,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>7 [4-17]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -2619,7 +2619,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>6 [4-15]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -2666,7 +2666,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>6 [4-15]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -2713,7 +2713,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>7 [4-17]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -2760,7 +2760,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>6 [4-15]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -2807,7 +2807,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>6 [4-16]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -2854,7 +2854,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>8 [4-25]</t>
+          <t>1 [0-1]</t>
         </is>
       </c>
     </row>
@@ -2901,7 +2901,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>7 [4-20]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -2948,7 +2948,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>8 [4-25]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -2995,7 +2995,7 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>9 [4-30]</t>
+          <t>1 [0-2]</t>
         </is>
       </c>
     </row>
@@ -3042,7 +3042,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>6 [4-14]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -3089,7 +3089,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>6 [4-14]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -3136,7 +3136,7 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>7 [4-17]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -3183,7 +3183,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>6 [4-14]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -3230,7 +3230,7 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>6 [4-14]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -3277,7 +3277,7 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>8 [4-18]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -3324,7 +3324,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>7 [4-16]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -3371,7 +3371,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>7 [4-16]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -3418,7 +3418,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>8 [4-19]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -3465,7 +3465,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>7 [4-16]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -3512,7 +3512,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>7 [4-16]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -3559,7 +3559,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>8 [4-19]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -3606,7 +3606,7 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>7 [4-16]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -3653,7 +3653,7 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>7 [4-16]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -3700,7 +3700,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>8 [5-19]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -3747,7 +3747,7 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>7 [4-16]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -3794,7 +3794,7 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>7 [4-17]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -3841,7 +3841,7 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>8 [5-19]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -3888,7 +3888,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>7 [4-16]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -3935,7 +3935,7 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>7 [4-17]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -3982,7 +3982,7 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>8 [5-19]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -4029,7 +4029,7 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>7 [4-16]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -4076,7 +4076,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>7 [4-17]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -4123,7 +4123,7 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>8 [5-19]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -4170,7 +4170,7 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>7 [4-16]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -4217,7 +4217,7 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>7 [4-17]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -4264,7 +4264,7 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>10 [4-44]</t>
+          <t>1 [0-3]</t>
         </is>
       </c>
     </row>
@@ -4311,7 +4311,7 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>8 [4-23]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -4358,7 +4358,7 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>8 [4-23]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -4405,7 +4405,7 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>9 [4-29]</t>
+          <t>1 [0-2]</t>
         </is>
       </c>
     </row>
@@ -4452,7 +4452,7 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>6 [4-18]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -4499,7 +4499,7 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>6 [4-18]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -4546,7 +4546,7 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>8 [4-19]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -4593,7 +4593,7 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>7 [4-16]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>
@@ -4640,7 +4640,7 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>7 [4-16]</t>
+          <t>0 [0-1]</t>
         </is>
       </c>
     </row>

--- a/data/population_models/models_summary_kriegberg_female.xlsx
+++ b/data/population_models/models_summary_kriegberg_female.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K91"/>
+  <dimension ref="A1:L91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,50 +365,55 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>i</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Phi</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>p</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pent</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>npar</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>AICc</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>DeltaAICc</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>weight</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Deviance</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>ind_per_ha</t>
         </is>
@@ -420,44 +425,47 @@
           <t>Phi(~1)p(~Time)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2">
+        <v>22</v>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>0.83 [0.547-0.949]</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>0.24 [0.075-0.518]</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>0.12 [0.116-0.128]</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>84 [46-194]</t>
         </is>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>5</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>81.6623863076923</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>0</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0.1836889152358518</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>-49.654386</v>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>10 [6-24]</t>
         </is>
       </c>
     </row>
@@ -467,44 +475,47 @@
           <t>Phi(~1)p(~1)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3">
+        <v>31</v>
+      </c>
+      <c r="C3" t="inlineStr">
         <is>
           <t>0.73 [0.548-0.862]</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>0.3 [0.093-0.651]</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>0.12 [0.075-0.185]</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>57 [35-135]</t>
         </is>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>5</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>82.89809330769231</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>1.235707000000005</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.09902676317819152</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>-48.418678</v>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>7 [4-17]</t>
         </is>
       </c>
     </row>
@@ -514,44 +525,47 @@
           <t>Phi(~1)p(~Time + I(Time^2))pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4">
+        <v>25</v>
+      </c>
+      <c r="C4" t="inlineStr">
         <is>
           <t>0.83 [0.545-0.954]</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>0.28 [0.069-0.543]</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>0.12 [0.119-0.127]</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>82 [46-181]</t>
         </is>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>6</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>83.177047</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>1.5146606923077</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.08613478205130892</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>-51.192033</v>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>10 [6-23]</t>
         </is>
       </c>
     </row>
@@ -561,44 +575,47 @@
           <t>Phi(~Time)p(~1)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>0.65 [0.391-0.868]</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>0.25 [0.089-0.538]</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>0.1 [0.077-0.137]</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>66 [40-146]</t>
         </is>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>5</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>84.3708523076923</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>2.708466000000001</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.047418414685642</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>-46.94592</v>
       </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>8 [5-18]</t>
         </is>
       </c>
     </row>
@@ -608,44 +625,47 @@
           <t>Phi(~Time)p(~1)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6">
+        <v>32</v>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>0.65 [0.372-0.871]</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>0.36 [0.128-0.692]</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>0.12 [0.075-0.185]</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>51 [33-114]</t>
         </is>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>6</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>84.381186</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>2.718799692307698</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>0.04717404289148591</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>-49.987894</v>
       </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>6 [4-14]</t>
         </is>
       </c>
     </row>
@@ -655,44 +675,47 @@
           <t>Phi(~1)p(~Time)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7">
+        <v>52</v>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>0.8 [0.519-0.94]</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>0.25 [0.06-0.663]</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>0.12 [0.054-0.281]</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>68 [36-197]</t>
         </is>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>6</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>84.47165</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>2.809263692307695</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>0.04508780462797671</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>-49.89743</v>
       </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>8 [4-25]</t>
         </is>
       </c>
     </row>
@@ -702,44 +725,47 @@
           <t>Phi(~Time)p(~Time)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8">
+        <v>23</v>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>0.82 [0.286-0.978]</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>0.24 [0.067-0.606]</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>0.12 [0.116-0.129]</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>84 [46-200]</t>
         </is>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>6</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>84.714651</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>3.052264692307702</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>0.03992933642900449</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>-49.654429</v>
       </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>10 [6-25]</t>
         </is>
       </c>
     </row>
@@ -749,44 +775,47 @@
           <t>Phi(~1)p(~1)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9">
+        <v>61</v>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>0.75 [0.552-0.874]</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>0.28 [0.084-0.631]</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>0.12 [0.055-0.234]</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>61 [36-148]</t>
         </is>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>6</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>84.980071</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>3.317684692307694</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>0.03496687911939016</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>-49.389009</v>
       </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>8 [4-18]</t>
         </is>
       </c>
     </row>
@@ -796,44 +825,47 @@
           <t>Phi(~Time)p(~Time + I(Time^2))pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10">
+        <v>26</v>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>0.73 [0.274-0.951]</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>0.28 [0.067-0.594]</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>0.12 [0.119-0.127]</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>84 [46-196]</t>
         </is>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>7</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>85.59003166666668</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>3.927645358974374</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>0.02577541083985738</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>-52.085715</v>
       </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>10 [6-24]</t>
         </is>
       </c>
     </row>
@@ -843,44 +875,47 @@
           <t>Phi(~1)p(~temp)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11">
+        <v>40</v>
+      </c>
+      <c r="C11" t="inlineStr">
         <is>
           <t>0.74 [0.55-0.865]</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>0.29 [0.083-0.649]</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>0.12 [0.071-0.187]</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>59 [36-136]</t>
         </is>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>6</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>85.618628</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>3.9562416923077</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>0.02540949193842995</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>-48.750452</v>
       </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>1 [0-1]</t>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>7 [4-17]</t>
         </is>
       </c>
     </row>
@@ -890,44 +925,47 @@
           <t>Phi(~1)p(~wind)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12">
+        <v>58</v>
+      </c>
+      <c r="C12" t="inlineStr">
         <is>
           <t>0.73 [0.542-0.861]</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>0.31 [0.084-0.689]</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>0.12 [0.075-0.185]</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>57 [35-135]</t>
         </is>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>6</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>85.847545</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>4.185158692307695</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>0.02266142868960756</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>-48.521535</v>
       </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>7 [4-17]</t>
         </is>
       </c>
     </row>
@@ -937,44 +975,47 @@
           <t>Phi(~1)p(~sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13">
+        <v>34</v>
+      </c>
+      <c r="C13" t="inlineStr">
         <is>
           <t>0.73 [0.549-0.863]</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>0.3 [0.089-0.663]</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>0.12 [0.075-0.186]</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>57 [35-134]</t>
         </is>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>6</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>85.923945</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>4.261558692307702</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>0.02181208780473643</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>-48.445135</v>
       </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>7 [4-17]</t>
         </is>
       </c>
     </row>
@@ -984,44 +1025,47 @@
           <t>Phi(~Time)p(~1)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14">
+        <v>62</v>
+      </c>
+      <c r="C14" t="inlineStr">
         <is>
           <t>0.66 [0.387-0.877]</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>0.31 [0.101-0.652]</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>0.12 [0.056-0.231]</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>57 [35-131]</t>
         </is>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>7</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>86.02094766666667</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>4.35856135897437</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>0.02077941782685654</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>-51.654799</v>
       </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>1 [0-1]</t>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>7 [4-16]</t>
         </is>
       </c>
     </row>
@@ -1031,44 +1075,47 @@
           <t>Phi(~1)p(~Time + I(Time^2))pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15">
+        <v>55</v>
+      </c>
+      <c r="C15" t="inlineStr">
         <is>
           <t>0.82 [0.511-0.953]</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>0.28 [0.051-0.68]</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>0.12 [0.054-0.295]</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>71 [36-243]</t>
         </is>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>7</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>86.42020466666668</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>4.757818358974376</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>0.01701906981606627</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>-51.255542</v>
       </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>9 [4-30]</t>
         </is>
       </c>
     </row>
@@ -1078,44 +1125,47 @@
           <t>Phi(~Time)p(~temp)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16">
+        <v>11</v>
+      </c>
+      <c r="C16" t="inlineStr">
         <is>
           <t>0.68 [0.401-0.896]</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>0.23 [0.076-0.531]</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>0.09 [0.06-0.143]</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>66 [40-143]</t>
         </is>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>6</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>86.541254</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>4.878867692307693</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>0.01601954921859827</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>-47.827826</v>
       </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>8 [5-18]</t>
         </is>
       </c>
     </row>
@@ -1125,44 +1175,47 @@
           <t>Phi(~1)p(~Time)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17">
+        <v>82</v>
+      </c>
+      <c r="C17" t="inlineStr">
         <is>
           <t>0.82 [0.516-0.949]</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>0.24 [0.053-0.666]</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>0.12 [0.031-0.383]</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>83 [36-349]</t>
         </is>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>7</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>86.84018066666667</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>5.177794358974367</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>0.01379555541964187</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>-50.835566</v>
       </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>1 [0-1]</t>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>10 [4-44]</t>
         </is>
       </c>
     </row>
@@ -1172,44 +1225,47 @@
           <t>Phi(~Time)p(~wind)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18">
+        <v>29</v>
+      </c>
+      <c r="C18" t="inlineStr">
         <is>
           <t>0.64 [0.377-0.863]</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>0.25 [0.077-0.564]</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>0.1 [0.069-0.14]</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>64 [39-142]</t>
         </is>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>6</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>86.850617</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>5.188230692307698</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>0.0137237554073401</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>-47.518462</v>
       </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>8 [5-18]</t>
         </is>
       </c>
     </row>
@@ -1219,44 +1275,47 @@
           <t>Phi(~Time)p(~wind)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19">
+        <v>59</v>
+      </c>
+      <c r="C19" t="inlineStr">
         <is>
           <t>0.63 [0.37-0.85]</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>0.4 [0.106-0.757]</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>0.12 [0.075-0.181]</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>48 [32-112]</t>
         </is>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>7</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>86.97204166666667</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>5.309655358974368</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>0.01291534280350566</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>-50.703705</v>
       </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>6 [4-14]</t>
         </is>
       </c>
     </row>
@@ -1266,44 +1325,47 @@
           <t>Phi(~1)p(~1)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="inlineStr">
         <is>
           <t>0.76 [0.511-0.906]</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>0.25 [0.056-0.659]</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>0.1 [0.063-0.154]</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>64 [36-166]</t>
         </is>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>4</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>87.04659848148148</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>5.38421217378918</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>0.01244274300550185</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>-41.443963</v>
       </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>1 [0-1]</t>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>8 [4-21]</t>
         </is>
       </c>
     </row>
@@ -1313,44 +1375,47 @@
           <t>Phi(~1)p(~temp)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21" t="inlineStr">
         <is>
           <t>0.8 [0.601-0.915]</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>0.18 [0.052-0.464]</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>0.07 [0.034-0.141]</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>78 [44-177]</t>
         </is>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>5</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>87.1192323076923</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>5.456845999999999</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>0.0119989680317264</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>-44.19754</v>
       </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>10 [6-22]</t>
         </is>
       </c>
     </row>
@@ -1360,44 +1425,47 @@
           <t>Phi(~Time + I(Time^2))p(~1)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22" t="inlineStr">
         <is>
           <t>0.68 [0.269-0.914]</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>0.24 [0.079-0.525]</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>0.1 [0.075-0.138]</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>67 [40-147]</t>
         </is>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>6</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>87.22297399999999</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>5.560587692307692</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>0.01139243800701563</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>-47.146106</v>
       </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>8 [5-18]</t>
         </is>
       </c>
     </row>
@@ -1407,44 +1475,47 @@
           <t>Phi(~Time)p(~sundur)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23" t="inlineStr">
         <is>
           <t>0.65 [0.389-0.869]</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>0.25 [0.084-0.555]</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>0.1 [0.075-0.142]</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>66 [40-146]</t>
         </is>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>6</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>87.422478</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>5.760091692307697</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>0.01031086096786938</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>-46.946602</v>
       </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>1 [0-1]</t>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>8 [5-18]</t>
         </is>
       </c>
     </row>
@@ -1454,44 +1525,47 @@
           <t>Phi(~Time)p(~Time + I(Time^2))pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24">
+        <v>56</v>
+      </c>
+      <c r="C24" t="inlineStr">
         <is>
           <t>0.62 [0.324-0.864]</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>0.49 [0.052-0.843]</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>0.12 [0.077-0.197]</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>48 [32-112]</t>
         </is>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>8</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>87.47496956521739</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>5.812583257525091</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>0.01004376475897656</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>-53.79498</v>
       </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>1 [0-1]</t>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>6 [4-14]</t>
         </is>
       </c>
     </row>
@@ -1501,44 +1575,47 @@
           <t>Phi(~Time)p(~Time)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25">
+        <v>53</v>
+      </c>
+      <c r="C25" t="inlineStr">
         <is>
           <t>0.68 [0.291-0.946]</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>0.32 [0.056-0.842]</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>0.12 [0.056-0.264]</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>55 [32-160]</t>
         </is>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>7</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>87.59111666666666</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>5.928730358974363</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>0.009477101013593996</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>-50.08463</v>
       </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>1 [0-1]</t>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>7 [4-20]</t>
         </is>
       </c>
     </row>
@@ -1548,44 +1625,47 @@
           <t>Phi(~Time)p(~temp)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26">
+        <v>41</v>
+      </c>
+      <c r="C26" t="inlineStr">
         <is>
           <t>0.65 [0.368-0.88]</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>0.36 [0.109-0.715]</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>0.12 [0.072-0.188]</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>52 [33-116]</t>
         </is>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>7</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>87.63813866666668</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>5.975752358974376</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>0.009256883799104445</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>-50.037608</v>
       </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>1 [0-1]</t>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>6 [4-14]</t>
         </is>
       </c>
     </row>
@@ -1595,44 +1675,47 @@
           <t>Phi(~Time)p(~sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27">
+        <v>35</v>
+      </c>
+      <c r="C27" t="inlineStr">
         <is>
           <t>0.65 [0.372-0.872]</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>0.36 [0.121-0.703]</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>0.12 [0.075-0.185]</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>52 [33-115]</t>
         </is>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>7</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>87.64102866666667</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>5.978642358974369</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>0.009243517261663874</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>-50.034718</v>
       </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>1 [0-1]</t>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>6 [4-14]</t>
         </is>
       </c>
     </row>
@@ -1642,44 +1725,47 @@
           <t>Phi(~Time + I(Time^2))p(~1)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28">
+        <v>33</v>
+      </c>
+      <c r="C28" t="inlineStr">
         <is>
           <t>0.66 [0.309-0.91]</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>0.35 [0.108-0.711]</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>0.12 [0.074-0.187]</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>52 [33-120]</t>
         </is>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>7</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>87.66043966666668</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>5.998053358974374</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>0.00915423825439806</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>-50.015307</v>
       </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>1 [0-1]</t>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>6 [4-15]</t>
         </is>
       </c>
     </row>
@@ -1689,44 +1775,47 @@
           <t>Phi(~1)p(~temp)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29">
+        <v>70</v>
+      </c>
+      <c r="C29" t="inlineStr">
         <is>
           <t>0.75 [0.554-0.874]</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>0.27 [0.076-0.618]</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>0.12 [0.053-0.231]</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>64 [37-152]</t>
         </is>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>7</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>87.66665166666667</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>6.004265358974365</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>0.009125849301247093</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>-50.009095</v>
       </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>8 [5-19]</t>
         </is>
       </c>
     </row>
@@ -1736,44 +1825,47 @@
           <t>Phi(~Time + I(Time^2))p(~Time)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30">
+        <v>24</v>
+      </c>
+      <c r="C30" t="inlineStr">
         <is>
           <t>0.85 [0.245-0.982]</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>0.23 [0.065-0.558]</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>0.12 [0.116-0.129]</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>86 [47-198]</t>
         </is>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>7</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>87.75777066666667</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>6.095384358974371</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>0.008719409077184301</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>-49.917976</v>
       </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>11 [6-25]</t>
         </is>
       </c>
     </row>
@@ -1783,44 +1875,47 @@
           <t>Phi(~1)p(~wind)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31">
+        <v>88</v>
+      </c>
+      <c r="C31" t="inlineStr">
         <is>
           <t>0.74 [0.547-0.874]</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>0.29 [0.076-0.668]</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>0.12 [0.054-0.235]</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>61 [36-149]</t>
         </is>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>7</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>88.20757366666668</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>6.545187358974374</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>0.006963275414979152</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>-49.468173</v>
       </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>8 [4-19]</t>
         </is>
       </c>
     </row>
@@ -1830,44 +1925,47 @@
           <t>Phi(~1)p(~sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32">
+        <v>64</v>
+      </c>
+      <c r="C32" t="inlineStr">
         <is>
           <t>0.75 [0.552-0.874]</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>0.28 [0.079-0.643]</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>0.12 [0.053-0.239]</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>62 [36-151]</t>
         </is>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>7</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>88.26712966666668</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>6.604743358974375</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>0.006758979852319409</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>-49.408617</v>
       </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>8 [4-19]</t>
         </is>
       </c>
     </row>
@@ -1877,44 +1975,47 @@
           <t>Phi(~1)p(~temp + sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33">
+        <v>43</v>
+      </c>
+      <c r="C33" t="inlineStr">
         <is>
           <t>0.74 [0.552-0.867]</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>0.29 [0.079-0.654]</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>0.12 [0.072-0.187]</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>59 [36-136]</t>
         </is>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>7</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>88.73760166666668</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>7.075215358974376</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>0.005342191538487522</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>-48.938145</v>
       </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>7 [4-17]</t>
         </is>
       </c>
     </row>
@@ -1924,44 +2025,47 @@
           <t>Phi(~1)p(~temp + wind)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34">
+        <v>46</v>
+      </c>
+      <c r="C34" t="inlineStr">
         <is>
           <t>0.73 [0.545-0.864]</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>0.3 [0.076-0.682]</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>0.12 [0.071-0.187]</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>58 [35-137]</t>
         </is>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>7</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>88.80669966666667</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>7.144313358974372</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>0.005160776069481624</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>-48.869046</v>
       </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>7 [4-17]</t>
         </is>
       </c>
     </row>
@@ -1971,44 +2075,47 @@
           <t>Phi(~Time + I(Time^2))p(~Time + I(Time^2))pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35">
+        <v>27</v>
+      </c>
+      <c r="C35" t="inlineStr">
         <is>
           <t>0.71 [0.271-0.956]</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>0.31 [0.063-0.603]</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>0.12 [0.119-0.127]</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>79 [44-181]</t>
         </is>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>8</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>88.99667456521739</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>7.334288257525088</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>0.00469312898023784</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>-52.273275</v>
       </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>10 [6-23]</t>
         </is>
       </c>
     </row>
@@ -2018,44 +2125,47 @@
           <t>Phi(~Time)p(~wind)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36">
+        <v>89</v>
+      </c>
+      <c r="C36" t="inlineStr">
         <is>
           <t>0.65 [0.375-0.871]</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>0.33 [0.084-0.708]</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>0.12 [0.053-0.236]</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>54 [34-130]</t>
         </is>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>8</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>89.0723425652174</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>7.409956257525096</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>0.004518886075377215</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>-52.197607</v>
       </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>7 [4-16]</t>
         </is>
       </c>
     </row>
@@ -2065,44 +2175,47 @@
           <t>Phi(~1)p(~sundur + wind)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37">
+        <v>37</v>
+      </c>
+      <c r="C37" t="inlineStr">
         <is>
           <t>0.73 [0.542-0.862]</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>0.31 [0.08-0.704]</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>0.12 [0.075-0.185]</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>56 [34-135]</t>
         </is>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>7</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>89.10792366666666</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>7.445537358974363</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>0.004439203503494138</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>-48.567823</v>
       </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>7 [4-17]</t>
         </is>
       </c>
     </row>
@@ -2112,44 +2225,47 @@
           <t>Phi(~Time)p(~temp + wind)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38">
+        <v>17</v>
+      </c>
+      <c r="C38" t="inlineStr">
         <is>
           <t>0.67 [0.386-0.893]</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>0.24 [0.069-0.564]</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>0.09 [0.056-0.141]</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>64 [39-140]</t>
         </is>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>7</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>89.30220366666667</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>7.639817358974369</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>0.004028261805912323</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>-48.373543</v>
       </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>8 [5-18]</t>
         </is>
       </c>
     </row>
@@ -2159,44 +2275,47 @@
           <t>Phi(~Time)p(~temp)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39">
+        <v>71</v>
+      </c>
+      <c r="C39" t="inlineStr">
         <is>
           <t>0.67 [0.383-0.884]</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>0.31 [0.092-0.665]</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>0.12 [0.055-0.23]</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>57 [35-131]</t>
         </is>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>8</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>89.49217956521738</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>7.829793257525083</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>0.003663236403636003</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>-51.77777</v>
       </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>7 [4-16]</t>
         </is>
       </c>
     </row>
@@ -2206,44 +2325,47 @@
           <t>Phi(~Time)p(~Time)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40">
+        <v>83</v>
+      </c>
+      <c r="C40" t="inlineStr">
         <is>
           <t>0.68 [0.344-0.921]</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>0.29 [0.05-0.793]</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>0.12 [0.034-0.343]</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>61 [34-185]</t>
         </is>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>8</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>89.55540156521739</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>7.893015257525093</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>0.003549248957975098</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <v>-51.714548</v>
       </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>8 [4-23]</t>
         </is>
       </c>
     </row>
@@ -2253,44 +2375,47 @@
           <t>Phi(~Time + I(Time^2))p(~1)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41">
+        <v>63</v>
+      </c>
+      <c r="C41" t="inlineStr">
         <is>
           <t>0.66 [0.329-0.904]</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>0.32 [0.101-0.656]</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>0.12 [0.055-0.231]</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>57 [35-131]</t>
         </is>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>8</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>89.60539756521739</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>7.943011257525086</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <v>0.003461624612211657</v>
       </c>
-      <c r="J41">
+      <c r="K41">
         <v>-51.664552</v>
       </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>7 [4-16]</t>
         </is>
       </c>
     </row>
@@ -2300,44 +2425,47 @@
           <t>Phi(~Time)p(~sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42">
+        <v>65</v>
+      </c>
+      <c r="C42" t="inlineStr">
         <is>
           <t>0.66 [0.386-0.877]</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>0.32 [0.097-0.665]</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>0.12 [0.054-0.233]</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>57 [35-131]</t>
         </is>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>8</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>89.60951856521739</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>7.947132257525084</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>0.003454499278094651</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <v>-51.660431</v>
       </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>7 [4-16]</t>
         </is>
       </c>
     </row>
@@ -2347,44 +2475,47 @@
           <t>Phi(~Time)p(~temp + sundur)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43">
+        <v>14</v>
+      </c>
+      <c r="C43" t="inlineStr">
         <is>
           <t>0.68 [0.399-0.897]</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>0.23 [0.071-0.545]</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>0.09 [0.06-0.146]</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>67 [40-144]</t>
         </is>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>7</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>89.78593166666667</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>8.123545358974368</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <v>0.003162841932781782</v>
       </c>
-      <c r="J43">
+      <c r="K43">
         <v>-47.889815</v>
       </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>8 [5-18]</t>
         </is>
       </c>
     </row>
@@ -2394,44 +2525,47 @@
           <t>Phi(~Time + I(Time^2))p(~temp)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44">
+        <v>12</v>
+      </c>
+      <c r="C44" t="inlineStr">
         <is>
           <t>0.68 [0.322-0.919]</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>0.23 [0.073-0.535]</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>0.09 [0.06-0.144]</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>66 [40-143]</t>
         </is>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>7</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>89.83976266666667</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>8.177376358974371</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>0.003078847902093868</v>
       </c>
-      <c r="J44">
+      <c r="K44">
         <v>-47.835984</v>
       </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>8 [5-18]</t>
         </is>
       </c>
     </row>
@@ -2441,44 +2575,47 @@
           <t>Phi(~1)p(~sundur)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45">
+        <v>4</v>
+      </c>
+      <c r="C45" t="inlineStr">
         <is>
           <t>0.76 [0.477-0.92]</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>0.25 [0.042-0.714]</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>0.1 [0.052-0.18]</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>65 [36-181]</t>
         </is>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>5</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>89.86769930769231</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>8.205313000000004</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>0.003036140537265362</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <v>-41.449073</v>
       </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>8 [4-23]</t>
         </is>
       </c>
     </row>
@@ -2488,44 +2625,47 @@
           <t>Phi(~1)p(~wind)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46">
+        <v>28</v>
+      </c>
+      <c r="C46" t="inlineStr">
         <is>
           <t>0.76 [0.512-0.906]</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>0.25 [0.053-0.673]</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>0.1 [0.063-0.156]</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>64 [36-166]</t>
         </is>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>5</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>89.87052730769231</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>8.208141000000012</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>0.003031850468339182</v>
       </c>
-      <c r="J46">
+      <c r="K46">
         <v>-41.446245</v>
       </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>8 [4-21]</t>
         </is>
       </c>
     </row>
@@ -2535,44 +2675,47 @@
           <t>Phi(~1)p(~temp + wind)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47">
+        <v>16</v>
+      </c>
+      <c r="C47" t="inlineStr">
         <is>
           <t>0.8 [0.602-0.913]</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>0.18 [0.049-0.488]</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>0.07 [0.031-0.14]</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>78 [44-179]</t>
         </is>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>6</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>89.94076099999999</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>8.278374692307693</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <v>0.002927229178056945</v>
       </c>
-      <c r="J47">
+      <c r="K47">
         <v>-44.428319</v>
       </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>10 [6-22]</t>
         </is>
       </c>
     </row>
@@ -2582,44 +2725,47 @@
           <t>Phi(~1)p(~Time + I(Time^2))pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48">
+        <v>85</v>
+      </c>
+      <c r="C48" t="inlineStr">
         <is>
           <t>0.82 [0.509-0.954]</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>0.29 [0.043-0.698]</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>0.12 [0.032-0.446]</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>69 [35-229]</t>
         </is>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>8</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>89.9858425652174</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>8.323456257525095</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <v>0.002861985228789829</v>
       </c>
-      <c r="J48">
+      <c r="K48">
         <v>-51.284107</v>
       </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>9 [4-29]</t>
         </is>
       </c>
     </row>
@@ -2629,44 +2775,47 @@
           <t>Phi(~Time + I(Time^2))p(~wind)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49">
+        <v>30</v>
+      </c>
+      <c r="C49" t="inlineStr">
         <is>
           <t>0.68 [0.207-0.922]</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>0.24 [0.065-0.566]</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>0.1 [0.067-0.14]</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>65 [39-144]</t>
         </is>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>7</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>90.01003366666667</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>8.34764735897437</v>
       </c>
-      <c r="I49">
+      <c r="J49">
         <v>0.002827576457308231</v>
       </c>
-      <c r="J49">
+      <c r="K49">
         <v>-47.665713</v>
       </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>8 [5-18]</t>
         </is>
       </c>
     </row>
@@ -2676,44 +2825,47 @@
           <t>Phi(~1)p(~temp + sundur)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50">
+        <v>13</v>
+      </c>
+      <c r="C50" t="inlineStr">
         <is>
           <t>0.8 [0.598-0.915]</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>0.18 [0.049-0.482]</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>0.07 [0.034-0.147]</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>77 [43-177]</t>
         </is>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>6</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>90.13548400000001</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>8.473097692307704</v>
       </c>
-      <c r="I50">
+      <c r="J50">
         <v>0.002655664225711535</v>
       </c>
-      <c r="J50">
+      <c r="K50">
         <v>-44.233596</v>
       </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>10 [5-22]</t>
         </is>
       </c>
     </row>
@@ -2723,44 +2875,47 @@
           <t>Phi(~Time)p(~sundur + wind)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51">
+        <v>8</v>
+      </c>
+      <c r="C51" t="inlineStr">
         <is>
           <t>0.64 [0.369-0.865]</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>0.25 [0.072-0.581]</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>0.1 [0.068-0.143]</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>65 [39-143]</t>
         </is>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>7</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>90.14225466666667</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <v>8.479868358974372</v>
       </c>
-      <c r="I51">
+      <c r="J51">
         <v>0.002646689117524137</v>
       </c>
-      <c r="J51">
+      <c r="K51">
         <v>-47.533492</v>
       </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>8 [5-18]</t>
         </is>
       </c>
     </row>
@@ -2770,44 +2925,47 @@
           <t>Phi(~Time)p(~sundur + wind)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52">
+        <v>38</v>
+      </c>
+      <c r="C52" t="inlineStr">
         <is>
           <t>0.63 [0.369-0.847]</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>0.41 [0.094-0.783]</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>0.12 [0.077-0.18]</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>48 [31-114]</t>
         </is>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>8</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <v>90.36301656521739</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <v>8.700630257525091</v>
       </c>
-      <c r="I52">
+      <c r="J52">
         <v>0.002370091400395992</v>
       </c>
-      <c r="J52">
+      <c r="K52">
         <v>-50.906933</v>
       </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>6 [4-14]</t>
         </is>
       </c>
     </row>
@@ -2817,44 +2975,47 @@
           <t>Phi(~Time + I(Time^2))p(~sundur)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53">
+        <v>6</v>
+      </c>
+      <c r="C53" t="inlineStr">
         <is>
           <t>0.68 [0.268-0.914]</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>0.24 [0.075-0.539]</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>0.1 [0.072-0.142]</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>67 [40-148]</t>
         </is>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>7</v>
       </c>
-      <c r="G53">
+      <c r="H53">
         <v>90.52933566666667</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <v>8.866949358974367</v>
       </c>
-      <c r="I53">
+      <c r="J53">
         <v>0.002180968336531183</v>
       </c>
-      <c r="J53">
+      <c r="K53">
         <v>-47.146411</v>
       </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>1 [0-1]</t>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>8 [5-18]</t>
         </is>
       </c>
     </row>
@@ -2864,44 +3025,47 @@
           <t>Phi(~Time + I(Time^2))p(~wind)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54">
+        <v>60</v>
+      </c>
+      <c r="C54" t="inlineStr">
         <is>
           <t>0.61 [0.304-0.892]</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>0.42 [0.098-0.781]</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>0.12 [0.076-0.18]</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>47 [31-114]</t>
         </is>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>8</v>
       </c>
-      <c r="G54">
+      <c r="H54">
         <v>90.5320985652174</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <v>8.869712257525094</v>
       </c>
-      <c r="I54">
+      <c r="J54">
         <v>0.002177957519527395</v>
       </c>
-      <c r="J54">
+      <c r="K54">
         <v>-50.737851</v>
       </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>6 [4-14]</t>
         </is>
       </c>
     </row>
@@ -2911,44 +3075,47 @@
           <t>Phi(~Time)p(~temp + wind)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55">
+        <v>47</v>
+      </c>
+      <c r="C55" t="inlineStr">
         <is>
           <t>0.63 [0.358-0.861]</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>0.4 [0.088-0.786]</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>0.12 [0.075-0.182]</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>48 [31-117]</t>
         </is>
       </c>
-      <c r="F55">
+      <c r="G55">
         <v>8</v>
       </c>
-      <c r="G55">
+      <c r="H55">
         <v>90.56624256521739</v>
       </c>
-      <c r="H55">
+      <c r="I55">
         <v>8.903856257525092</v>
       </c>
-      <c r="I55">
+      <c r="J55">
         <v>0.002141091016623436</v>
       </c>
-      <c r="J55">
+      <c r="K55">
         <v>-50.703707</v>
       </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>6 [4-15]</t>
         </is>
       </c>
     </row>
@@ -2958,44 +3125,47 @@
           <t>Phi(~Time + I(Time^2))p(~Time)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56">
+        <v>54</v>
+      </c>
+      <c r="C56" t="inlineStr">
         <is>
           <t>0.79 [0.238-0.973]</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="D56" t="inlineStr">
         <is>
           <t>0.26 [0.045-0.813]</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>0.12 [0.053-0.283]</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>64 [34-201]</t>
         </is>
       </c>
-      <c r="F56">
+      <c r="G56">
         <v>8</v>
       </c>
-      <c r="G56">
+      <c r="H56">
         <v>90.98564856521739</v>
       </c>
-      <c r="H56">
+      <c r="I56">
         <v>9.323262257525087</v>
       </c>
-      <c r="I56">
+      <c r="J56">
         <v>0.001736050177605957</v>
       </c>
-      <c r="J56">
+      <c r="K56">
         <v>-50.284301</v>
       </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>1 [0-2]</t>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>8 [4-25]</t>
         </is>
       </c>
     </row>
@@ -3005,44 +3175,47 @@
           <t>Phi(~Time)p(~temp + sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57">
+        <v>44</v>
+      </c>
+      <c r="C57" t="inlineStr">
         <is>
           <t>0.66 [0.368-0.884]</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>0.35 [0.101-0.72]</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>0.12 [0.072-0.188]</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>53 [34-118]</t>
         </is>
       </c>
-      <c r="F57">
+      <c r="G57">
         <v>8</v>
       </c>
-      <c r="G57">
+      <c r="H57">
         <v>91.11562456521739</v>
       </c>
-      <c r="H57">
+      <c r="I57">
         <v>9.453238257525086</v>
       </c>
-      <c r="I57">
+      <c r="J57">
         <v>0.00162681565789587</v>
       </c>
-      <c r="J57">
+      <c r="K57">
         <v>-50.154325</v>
       </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>7 [4-15]</t>
         </is>
       </c>
     </row>
@@ -3052,44 +3225,47 @@
           <t>Phi(~1)p(~temp + wind)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58">
+        <v>76</v>
+      </c>
+      <c r="C58" t="inlineStr">
         <is>
           <t>0.74 [0.55-0.873]</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t>0.27 [0.07-0.651]</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>0.12 [0.052-0.232]</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>64 [37-153]</t>
         </is>
       </c>
-      <c r="F58">
+      <c r="G58">
         <v>8</v>
       </c>
-      <c r="G58">
+      <c r="H58">
         <v>91.14257556521738</v>
       </c>
-      <c r="H58">
+      <c r="I58">
         <v>9.480189257525083</v>
       </c>
-      <c r="I58">
+      <c r="J58">
         <v>0.001605040548252116</v>
       </c>
-      <c r="J58">
+      <c r="K58">
         <v>-50.127374</v>
       </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>8 [5-19]</t>
         </is>
       </c>
     </row>
@@ -3099,44 +3275,47 @@
           <t>Phi(~Time + I(Time^2))p(~sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59">
+        <v>36</v>
+      </c>
+      <c r="C59" t="inlineStr">
         <is>
           <t>0.66 [0.307-0.911]</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="D59" t="inlineStr">
         <is>
           <t>0.35 [0.104-0.722]</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>0.12 [0.074-0.188]</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>52 [33-120]</t>
         </is>
       </c>
-      <c r="F59">
+      <c r="G59">
         <v>8</v>
       </c>
-      <c r="G59">
+      <c r="H59">
         <v>91.21510756521739</v>
       </c>
-      <c r="H59">
+      <c r="I59">
         <v>9.552721257525093</v>
       </c>
-      <c r="I59">
+      <c r="J59">
         <v>0.001547874996003712</v>
       </c>
-      <c r="J59">
+      <c r="K59">
         <v>-50.054842</v>
       </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>6 [4-15]</t>
         </is>
       </c>
     </row>
@@ -3146,44 +3325,47 @@
           <t>Phi(~Time + I(Time^2))p(~temp)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60">
+        <v>42</v>
+      </c>
+      <c r="C60" t="inlineStr">
         <is>
           <t>0.66 [0.305-0.912]</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="D60" t="inlineStr">
         <is>
           <t>0.35 [0.098-0.727]</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>0.12 [0.072-0.189]</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>52 [33-120]</t>
         </is>
       </c>
-      <c r="F60">
+      <c r="G60">
         <v>8</v>
       </c>
-      <c r="G60">
+      <c r="H60">
         <v>91.21925256521739</v>
       </c>
-      <c r="H60">
+      <c r="I60">
         <v>9.556866257525087</v>
       </c>
-      <c r="I60">
+      <c r="J60">
         <v>0.001544670347039054</v>
       </c>
-      <c r="J60">
+      <c r="K60">
         <v>-50.050697</v>
       </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>6 [4-15]</t>
         </is>
       </c>
     </row>
@@ -3193,44 +3375,47 @@
           <t>Phi(~1)p(~temp + sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61">
+        <v>73</v>
+      </c>
+      <c r="C61" t="inlineStr">
         <is>
           <t>0.75 [0.554-0.874]</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="D61" t="inlineStr">
         <is>
           <t>0.27 [0.073-0.629]</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>0.12 [0.052-0.234]</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>64 [37-151]</t>
         </is>
       </c>
-      <c r="F61">
+      <c r="G61">
         <v>8</v>
       </c>
-      <c r="G61">
+      <c r="H61">
         <v>91.22915756521739</v>
       </c>
-      <c r="H61">
+      <c r="I61">
         <v>9.56677125752509</v>
       </c>
-      <c r="I61">
+      <c r="J61">
         <v>0.001537039279174563</v>
       </c>
-      <c r="J61">
+      <c r="K61">
         <v>-50.040792</v>
       </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>8 [5-19]</t>
         </is>
       </c>
     </row>
@@ -3240,44 +3425,47 @@
           <t>Phi(~Time)p(~Time + I(Time^2))pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62">
+        <v>86</v>
+      </c>
+      <c r="C62" t="inlineStr">
         <is>
           <t>0.63 [0.297-0.878]</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="D62" t="inlineStr">
         <is>
           <t>0.48 [0.024-0.877]</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>0.12 [0.042-0.329]</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>50 [31-144]</t>
         </is>
       </c>
-      <c r="F62">
+      <c r="G62">
         <v>9</v>
       </c>
-      <c r="G62">
+      <c r="H62">
         <v>91.32130218181818</v>
       </c>
-      <c r="H62">
+      <c r="I62">
         <v>9.658915874125881</v>
       </c>
-      <c r="I62">
+      <c r="J62">
         <v>0.001467830868954312</v>
       </c>
-      <c r="J62">
+      <c r="K62">
         <v>-53.869596</v>
       </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>6 [4-18]</t>
         </is>
       </c>
     </row>
@@ -3287,44 +3475,47 @@
           <t>Phi(~Time + I(Time^2))p(~Time + I(Time^2))pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63">
+        <v>57</v>
+      </c>
+      <c r="C63" t="inlineStr">
         <is>
           <t>0.63 [0.159-0.903]</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="D63" t="inlineStr">
         <is>
           <t>0.49 [0.042-0.856]</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>0.12 [0.075-0.203]</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>49 [32-111]</t>
         </is>
       </c>
-      <c r="F63">
+      <c r="G63">
         <v>9</v>
       </c>
-      <c r="G63">
+      <c r="H63">
         <v>91.34339218181819</v>
       </c>
-      <c r="H63">
+      <c r="I63">
         <v>9.681005874125887</v>
       </c>
-      <c r="I63">
+      <c r="J63">
         <v>0.001451707880118558</v>
       </c>
-      <c r="J63">
+      <c r="K63">
         <v>-53.847506</v>
       </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>6 [4-14]</t>
         </is>
       </c>
     </row>
@@ -3334,44 +3525,47 @@
           <t>Phi(~1)p(~sundur + wind)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64">
+        <v>67</v>
+      </c>
+      <c r="C64" t="inlineStr">
         <is>
           <t>0.74 [0.548-0.874]</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="D64" t="inlineStr">
         <is>
           <t>0.29 [0.071-0.68]</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>0.12 [0.052-0.24]</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>61 [36-151]</t>
         </is>
       </c>
-      <c r="F64">
+      <c r="G64">
         <v>8</v>
       </c>
-      <c r="G64">
+      <c r="H64">
         <v>91.7918755652174</v>
       </c>
-      <c r="H64">
+      <c r="I64">
         <v>10.12948925752509</v>
       </c>
-      <c r="I64">
+      <c r="J64">
         <v>0.001160091660850788</v>
       </c>
-      <c r="J64">
+      <c r="K64">
         <v>-49.478074</v>
       </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>8 [4-19]</t>
         </is>
       </c>
     </row>
@@ -3381,44 +3575,47 @@
           <t>Phi(~1)p(~temp + wind + sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65">
+        <v>49</v>
+      </c>
+      <c r="C65" t="inlineStr">
         <is>
           <t>0.74 [0.546-0.866]</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="D65" t="inlineStr">
         <is>
           <t>0.29 [0.072-0.691]</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>0.12 [0.071-0.187]</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>58 [35-137]</t>
         </is>
       </c>
-      <c r="F65">
+      <c r="G65">
         <v>8</v>
       </c>
-      <c r="G65">
+      <c r="H65">
         <v>92.1385295652174</v>
       </c>
-      <c r="H65">
+      <c r="I65">
         <v>10.4761432575251</v>
       </c>
-      <c r="I65">
+      <c r="J65">
         <v>0.0009754776992424042</v>
       </c>
-      <c r="J65">
+      <c r="K65">
         <v>-49.13142</v>
       </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>7 [4-17]</t>
         </is>
       </c>
     </row>
@@ -3428,44 +3625,47 @@
           <t>Phi(~Time)p(~temp + wind + sundur)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66">
+        <v>20</v>
+      </c>
+      <c r="C66" t="inlineStr">
         <is>
           <t>0.67 [0.379-0.895]</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="D66" t="inlineStr">
         <is>
           <t>0.24 [0.065-0.575]</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>0.09 [0.057-0.144]</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>65 [39-141]</t>
         </is>
       </c>
-      <c r="F66">
+      <c r="G66">
         <v>8</v>
       </c>
-      <c r="G66">
+      <c r="H66">
         <v>92.74816756521739</v>
       </c>
-      <c r="H66">
+      <c r="I66">
         <v>11.08578125752508</v>
       </c>
-      <c r="I66">
+      <c r="J66">
         <v>0.0007191775726702218</v>
       </c>
-      <c r="J66">
+      <c r="K66">
         <v>-48.521782</v>
       </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>8 [5-18]</t>
         </is>
       </c>
     </row>
@@ -3475,44 +3675,47 @@
           <t>Phi(~Time + I(Time^2))p(~temp + wind)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67">
+        <v>18</v>
+      </c>
+      <c r="C67" t="inlineStr">
         <is>
           <t>0.67 [0.309-0.92]</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="D67" t="inlineStr">
         <is>
           <t>0.24 [0.067-0.571]</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>0.09 [0.055-0.143]</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>64 [39-140]</t>
         </is>
       </c>
-      <c r="F67">
+      <c r="G67">
         <v>8</v>
       </c>
-      <c r="G67">
+      <c r="H67">
         <v>92.8962525652174</v>
       </c>
-      <c r="H67">
+      <c r="I67">
         <v>11.23386625752509</v>
       </c>
-      <c r="I67">
+      <c r="J67">
         <v>0.000667851470293668</v>
       </c>
-      <c r="J67">
+      <c r="K67">
         <v>-48.373697</v>
       </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>8 [5-18]</t>
         </is>
       </c>
     </row>
@@ -3522,44 +3725,47 @@
           <t>Phi(~1)p(~sundur + wind)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68">
+        <v>7</v>
+      </c>
+      <c r="C68" t="inlineStr">
         <is>
           <t>0.76 [0.479-0.92]</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="D68" t="inlineStr">
         <is>
           <t>0.25 [0.04-0.724]</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>0.1 [0.052-0.18]</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>65 [36-180]</t>
         </is>
       </c>
-      <c r="F68">
+      <c r="G68">
         <v>6</v>
       </c>
-      <c r="G68">
+      <c r="H68">
         <v>92.917738</v>
       </c>
-      <c r="H68">
+      <c r="I68">
         <v>11.2553516923077</v>
       </c>
-      <c r="I68">
+      <c r="J68">
         <v>0.0006607153300869938</v>
       </c>
-      <c r="J68">
+      <c r="K68">
         <v>-41.451341</v>
       </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>8 [4-22]</t>
         </is>
       </c>
     </row>
@@ -3569,44 +3775,47 @@
           <t>Phi(~Time + I(Time^2))p(~wind)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69">
+        <v>90</v>
+      </c>
+      <c r="C69" t="inlineStr">
         <is>
           <t>0.64 [0.316-0.904]</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="D69" t="inlineStr">
         <is>
           <t>0.34 [0.082-0.719]</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>0.12 [0.053-0.237]</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>54 [34-131]</t>
         </is>
       </c>
-      <c r="F69">
+      <c r="G69">
         <v>9</v>
       </c>
-      <c r="G69">
+      <c r="H69">
         <v>92.91841718181819</v>
       </c>
-      <c r="H69">
+      <c r="I69">
         <v>11.25603087412588</v>
       </c>
-      <c r="I69">
+      <c r="J69">
         <v>0.0006604909952605878</v>
       </c>
-      <c r="J69">
+      <c r="K69">
         <v>-52.27248</v>
       </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>7 [4-16]</t>
         </is>
       </c>
     </row>
@@ -3616,44 +3825,47 @@
           <t>Phi(~Time)p(~temp + wind)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70">
+        <v>77</v>
+      </c>
+      <c r="C70" t="inlineStr">
         <is>
           <t>0.66 [0.366-0.882]</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="D70" t="inlineStr">
         <is>
           <t>0.33 [0.078-0.718]</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>0.12 [0.053-0.234]</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>55 [34-130]</t>
         </is>
       </c>
-      <c r="F70">
+      <c r="G70">
         <v>9</v>
       </c>
-      <c r="G70">
+      <c r="H70">
         <v>92.93703718181818</v>
       </c>
-      <c r="H70">
+      <c r="I70">
         <v>11.27465087412588</v>
       </c>
-      <c r="I70">
+      <c r="J70">
         <v>0.0006543703598618302</v>
       </c>
-      <c r="J70">
+      <c r="K70">
         <v>-52.253861</v>
       </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>7 [4-16]</t>
         </is>
       </c>
     </row>
@@ -3663,44 +3875,47 @@
           <t>Phi(~Time)p(~sundur + wind)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71">
+        <v>68</v>
+      </c>
+      <c r="C71" t="inlineStr">
         <is>
           <t>0.65 [0.37-0.873]</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="D71" t="inlineStr">
         <is>
           <t>0.33 [0.079-0.722]</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>0.12 [0.052-0.24]</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>54 [34-130]</t>
         </is>
       </c>
-      <c r="F71">
+      <c r="G71">
         <v>9</v>
       </c>
-      <c r="G71">
+      <c r="H71">
         <v>92.98202118181818</v>
       </c>
-      <c r="H71">
+      <c r="I71">
         <v>11.31963487412588</v>
       </c>
-      <c r="I71">
+      <c r="J71">
         <v>0.0006398165474494589</v>
       </c>
-      <c r="J71">
+      <c r="K71">
         <v>-52.208877</v>
       </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>7 [4-16]</t>
         </is>
       </c>
     </row>
@@ -3710,44 +3925,47 @@
           <t>Phi(~1)p(~temp + wind + sundur)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72">
+        <v>19</v>
+      </c>
+      <c r="C72" t="inlineStr">
         <is>
           <t>0.8 [0.599-0.913]</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="D72" t="inlineStr">
         <is>
           <t>0.19 [0.046-0.505]</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>0.07 [0.031-0.145]</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>78 [44-178]</t>
         </is>
       </c>
-      <c r="F72">
+      <c r="G72">
         <v>7</v>
       </c>
-      <c r="G72">
+      <c r="H72">
         <v>93.15929966666667</v>
       </c>
-      <c r="H72">
+      <c r="I72">
         <v>11.49691335897437</v>
       </c>
-      <c r="I72">
+      <c r="J72">
         <v>0.0005855445378632366</v>
       </c>
-      <c r="J72">
+      <c r="K72">
         <v>-44.516446</v>
       </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>10 [6-22]</t>
         </is>
       </c>
     </row>
@@ -3757,44 +3975,47 @@
           <t>Phi(~Time + I(Time^2))p(~temp)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73">
+        <v>72</v>
+      </c>
+      <c r="C73" t="inlineStr">
         <is>
           <t>0.66 [0.319-0.909]</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="D73" t="inlineStr">
         <is>
           <t>0.31 [0.09-0.67]</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>0.12 [0.053-0.232]</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>58 [35-134]</t>
         </is>
       </c>
-      <c r="F73">
+      <c r="G73">
         <v>9</v>
       </c>
-      <c r="G73">
+      <c r="H73">
         <v>93.34867718181819</v>
       </c>
-      <c r="H73">
+      <c r="I73">
         <v>11.68629087412589</v>
       </c>
-      <c r="I73">
+      <c r="J73">
         <v>0.000532644110306252</v>
       </c>
-      <c r="J73">
+      <c r="K73">
         <v>-51.84222</v>
       </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>7 [4-17]</t>
         </is>
       </c>
     </row>
@@ -3804,44 +4025,47 @@
           <t>Phi(~Time + I(Time^2))p(~temp + sundur)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74">
+        <v>15</v>
+      </c>
+      <c r="C74" t="inlineStr">
         <is>
           <t>0.68 [0.32-0.92]</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="D74" t="inlineStr">
         <is>
           <t>0.23 [0.069-0.55]</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>0.09 [0.06-0.146]</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>67 [40-144]</t>
         </is>
       </c>
-      <c r="F74">
+      <c r="G74">
         <v>8</v>
       </c>
-      <c r="G74">
+      <c r="H74">
         <v>93.37778056521739</v>
       </c>
-      <c r="H74">
+      <c r="I74">
         <v>11.71539425752509</v>
       </c>
-      <c r="I74">
+      <c r="J74">
         <v>0.0005249493590325164</v>
       </c>
-      <c r="J74">
+      <c r="K74">
         <v>-47.892169</v>
       </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>8 [5-18]</t>
         </is>
       </c>
     </row>
@@ -3851,44 +4075,47 @@
           <t>Phi(~Time)p(~temp + sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75">
+        <v>74</v>
+      </c>
+      <c r="C75" t="inlineStr">
         <is>
           <t>0.67 [0.383-0.885]</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="D75" t="inlineStr">
         <is>
           <t>0.31 [0.087-0.677]</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>0.12 [0.054-0.232]</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>57 [35-131]</t>
         </is>
       </c>
-      <c r="F75">
+      <c r="G75">
         <v>9</v>
       </c>
-      <c r="G75">
+      <c r="H75">
         <v>93.40790618181819</v>
       </c>
-      <c r="H75">
+      <c r="I75">
         <v>11.74551987412589</v>
       </c>
-      <c r="I75">
+      <c r="J75">
         <v>0.0005171014019897402</v>
       </c>
-      <c r="J75">
+      <c r="K75">
         <v>-51.782992</v>
       </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>7 [4-16]</t>
         </is>
       </c>
     </row>
@@ -3898,44 +4125,47 @@
           <t>Phi(~Time + I(Time^2))p(~Time)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76">
+        <v>84</v>
+      </c>
+      <c r="C76" t="inlineStr">
         <is>
           <t>0.68 [0.293-0.937]</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="D76" t="inlineStr">
         <is>
           <t>0.29 [0.05-0.795]</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>0.12 [0.034-0.344]</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>61 [34-185]</t>
         </is>
       </c>
-      <c r="F76">
+      <c r="G76">
         <v>9</v>
       </c>
-      <c r="G76">
+      <c r="H76">
         <v>93.46747718181818</v>
       </c>
-      <c r="H76">
+      <c r="I76">
         <v>11.80509087412588</v>
       </c>
-      <c r="I76">
+      <c r="J76">
         <v>0.0005019263976188525</v>
       </c>
-      <c r="J76">
+      <c r="K76">
         <v>-51.723421</v>
       </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>8 [4-23]</t>
         </is>
       </c>
     </row>
@@ -3945,44 +4175,47 @@
           <t>Phi(~Time + I(Time^2))p(~sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77">
+        <v>66</v>
+      </c>
+      <c r="C77" t="inlineStr">
         <is>
           <t>0.66 [0.329-0.904]</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="D77" t="inlineStr">
         <is>
           <t>0.32 [0.096-0.668]</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>0.12 [0.054-0.233]</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>57 [35-131]</t>
         </is>
       </c>
-      <c r="F77">
+      <c r="G77">
         <v>9</v>
       </c>
-      <c r="G77">
+      <c r="H77">
         <v>93.52131018181819</v>
       </c>
-      <c r="H77">
+      <c r="I77">
         <v>11.85892387412589</v>
       </c>
-      <c r="I77">
+      <c r="J77">
         <v>0.0004885964976444136</v>
       </c>
-      <c r="J77">
+      <c r="K77">
         <v>-51.669588</v>
       </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>7 [4-16]</t>
         </is>
       </c>
     </row>
@@ -3992,44 +4225,47 @@
           <t>Phi(~Time + I(Time^2))p(~sundur + wind)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78">
+        <v>9</v>
+      </c>
+      <c r="C78" t="inlineStr">
         <is>
           <t>0.68 [0.184-0.927]</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="D78" t="inlineStr">
         <is>
           <t>0.23 [0.058-0.593]</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>0.1 [0.067-0.143]</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>66 [39-146]</t>
         </is>
       </c>
-      <c r="F78">
+      <c r="G78">
         <v>8</v>
       </c>
-      <c r="G78">
+      <c r="H78">
         <v>93.59083556521739</v>
       </c>
-      <c r="H78">
+      <c r="I78">
         <v>11.92844925752509</v>
       </c>
-      <c r="I78">
+      <c r="J78">
         <v>0.0004719033977965852</v>
       </c>
-      <c r="J78">
+      <c r="K78">
         <v>-47.679114</v>
       </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>8 [5-18]</t>
         </is>
       </c>
     </row>
@@ -4039,44 +4275,47 @@
           <t>Phi(~Time + I(Time^2))p(~sundur + wind)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79">
+        <v>39</v>
+      </c>
+      <c r="C79" t="inlineStr">
         <is>
           <t>0.59 [0.3-0.888]</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="D79" t="inlineStr">
         <is>
           <t>0.46 [0.082-0.828]</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>0.12 [0.078-0.177]</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>45 [30-113]</t>
         </is>
       </c>
-      <c r="F79">
+      <c r="G79">
         <v>9</v>
       </c>
-      <c r="G79">
+      <c r="H79">
         <v>94.15999318181818</v>
       </c>
-      <c r="H79">
+      <c r="I79">
         <v>12.49760687412588</v>
       </c>
-      <c r="I79">
+      <c r="J79">
         <v>0.0003550275849897499</v>
       </c>
-      <c r="J79">
+      <c r="K79">
         <v>-51.030905</v>
       </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>6 [4-14]</t>
         </is>
       </c>
     </row>
@@ -4086,44 +4325,47 @@
           <t>Phi(~Time)p(~temp + wind + sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80">
+        <v>50</v>
+      </c>
+      <c r="C80" t="inlineStr">
         <is>
           <t>0.63 [0.357-0.865]</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="D80" t="inlineStr">
         <is>
           <t>0.4 [0.081-0.795]</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>0.12 [0.075-0.182]</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>49 [32-119]</t>
         </is>
       </c>
-      <c r="F80">
+      <c r="G80">
         <v>9</v>
       </c>
-      <c r="G80">
+      <c r="H80">
         <v>94.25871318181818</v>
       </c>
-      <c r="H80">
+      <c r="I80">
         <v>12.59632687412588</v>
       </c>
-      <c r="I80">
+      <c r="J80">
         <v>0.0003379288906486184</v>
       </c>
-      <c r="J80">
+      <c r="K80">
         <v>-50.932185</v>
       </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>6 [4-15]</t>
         </is>
       </c>
     </row>
@@ -4133,44 +4375,47 @@
           <t>Phi(~Time + I(Time^2))p(~temp + wind)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81">
+        <v>48</v>
+      </c>
+      <c r="C81" t="inlineStr">
         <is>
           <t>0.61 [0.298-0.898]</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="D81" t="inlineStr">
         <is>
           <t>0.42 [0.081-0.809]</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>0.12 [0.075-0.181]</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>47 [31-121]</t>
         </is>
       </c>
-      <c r="F81">
+      <c r="G81">
         <v>9</v>
       </c>
-      <c r="G81">
+      <c r="H81">
         <v>94.45301518181819</v>
       </c>
-      <c r="H81">
+      <c r="I81">
         <v>12.79062887412589</v>
       </c>
-      <c r="I81">
+      <c r="J81">
         <v>0.0003066430877517954</v>
       </c>
-      <c r="J81">
+      <c r="K81">
         <v>-50.737883</v>
       </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>6 [4-15]</t>
         </is>
       </c>
     </row>
@@ -4180,44 +4425,47 @@
           <t>Phi(~1)p(~temp + wind + sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82">
+        <v>79</v>
+      </c>
+      <c r="C82" t="inlineStr">
         <is>
           <t>0.74 [0.551-0.873]</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="D82" t="inlineStr">
         <is>
           <t>0.27 [0.067-0.664]</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>0.12 [0.051-0.235]</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>63 [37-151]</t>
         </is>
       </c>
-      <c r="F82">
+      <c r="G82">
         <v>9</v>
       </c>
-      <c r="G82">
+      <c r="H82">
         <v>94.99911718181819</v>
       </c>
-      <c r="H82">
+      <c r="I82">
         <v>13.33673087412589</v>
       </c>
-      <c r="I82">
+      <c r="J82">
         <v>0.0002333719401917022</v>
       </c>
-      <c r="J82">
+      <c r="K82">
         <v>-50.191781</v>
       </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>8 [5-19]</t>
         </is>
       </c>
     </row>
@@ -4227,44 +4475,47 @@
           <t>Phi(~Time + I(Time^2))p(~temp + sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83">
+        <v>45</v>
+      </c>
+      <c r="C83" t="inlineStr">
         <is>
           <t>0.66 [0.304-0.914]</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="D83" t="inlineStr">
         <is>
           <t>0.35 [0.094-0.733]</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>0.12 [0.072-0.19]</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>53 [34-120]</t>
         </is>
       </c>
-      <c r="F83">
+      <c r="G83">
         <v>9</v>
       </c>
-      <c r="G83">
+      <c r="H83">
         <v>95.03555118181819</v>
       </c>
-      <c r="H83">
+      <c r="I83">
         <v>13.37316487412589</v>
       </c>
-      <c r="I83">
+      <c r="J83">
         <v>0.0002291590927831813</v>
       </c>
-      <c r="J83">
+      <c r="K83">
         <v>-50.155347</v>
       </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>1 [0-3]</t>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>7 [4-15]</t>
         </is>
       </c>
     </row>
@@ -4274,44 +4525,47 @@
           <t>Phi(~Time + I(Time^2))p(~Time + I(Time^2))pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84">
+        <v>87</v>
+      </c>
+      <c r="C84" t="inlineStr">
         <is>
           <t>0.63 [0.126-0.934]</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="D84" t="inlineStr">
         <is>
           <t>0.48 [0.009-0.926]</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>0.12 [0.028-0.441]</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>50 [31-141]</t>
         </is>
       </c>
-      <c r="F84">
+      <c r="G84">
         <v>10</v>
       </c>
-      <c r="G84">
+      <c r="H84">
         <v>95.61170647619048</v>
       </c>
-      <c r="H84">
+      <c r="I84">
         <v>13.94932016849818</v>
       </c>
-      <c r="I84">
+      <c r="J84">
         <v>0.0001718013458721739</v>
       </c>
-      <c r="J84">
+      <c r="K84">
         <v>-53.873564</v>
       </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>6 [4-18]</t>
         </is>
       </c>
     </row>
@@ -4321,44 +4575,47 @@
           <t>Phi(~Time + I(Time^2))p(~temp + wind + sundur)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85">
+        <v>21</v>
+      </c>
+      <c r="C85" t="inlineStr">
         <is>
           <t>0.67 [0.306-0.922]</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="D85" t="inlineStr">
         <is>
           <t>0.24 [0.064-0.585]</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>0.09 [0.056-0.145]</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>65 [39-141]</t>
         </is>
       </c>
-      <c r="F85">
+      <c r="G85">
         <v>9</v>
       </c>
-      <c r="G85">
+      <c r="H85">
         <v>96.66126418181818</v>
       </c>
-      <c r="H85">
+      <c r="I85">
         <v>14.99887787412588</v>
       </c>
-      <c r="I85">
+      <c r="J85">
         <v>0.0001016524854317122</v>
       </c>
-      <c r="J85">
+      <c r="K85">
         <v>-48.529634</v>
       </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>8 [5-18]</t>
         </is>
       </c>
     </row>
@@ -4368,44 +4625,47 @@
           <t>Phi(~Time + I(Time^2))p(~temp + wind)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86">
+        <v>78</v>
+      </c>
+      <c r="C86" t="inlineStr">
         <is>
           <t>0.64 [0.307-0.91]</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="D86" t="inlineStr">
         <is>
           <t>0.33 [0.076-0.723]</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>0.12 [0.052-0.237]</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>55 [34-134]</t>
         </is>
       </c>
-      <c r="F86">
+      <c r="G86">
         <v>10</v>
       </c>
-      <c r="G86">
+      <c r="H86">
         <v>97.09441647619049</v>
       </c>
-      <c r="H86">
+      <c r="I86">
         <v>15.43203016849819</v>
       </c>
-      <c r="I86">
+      <c r="J86">
         <v>8.185782029390275E-05</v>
       </c>
-      <c r="J86">
+      <c r="K86">
         <v>-52.390854</v>
       </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>1 [0-2]</t>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>7 [4-17]</t>
         </is>
       </c>
     </row>
@@ -4415,44 +4675,47 @@
           <t>Phi(~Time)p(~temp + wind + sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87">
+        <v>80</v>
+      </c>
+      <c r="C87" t="inlineStr">
         <is>
           <t>0.66 [0.365-0.883]</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="D87" t="inlineStr">
         <is>
           <t>0.33 [0.073-0.729]</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>0.12 [0.052-0.237]</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>55 [34-130]</t>
         </is>
       </c>
-      <c r="F87">
+      <c r="G87">
         <v>10</v>
       </c>
-      <c r="G87">
+      <c r="H87">
         <v>97.18843147619049</v>
       </c>
-      <c r="H87">
+      <c r="I87">
         <v>15.52604516849819</v>
       </c>
-      <c r="I87">
+      <c r="J87">
         <v>7.809892899246601E-05</v>
       </c>
-      <c r="J87">
+      <c r="K87">
         <v>-52.296839</v>
       </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>7 [4-16]</t>
         </is>
       </c>
     </row>
@@ -4462,44 +4725,47 @@
           <t>Phi(~Time + I(Time^2))p(~sundur + wind)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88">
+        <v>69</v>
+      </c>
+      <c r="C88" t="inlineStr">
         <is>
           <t>0.63 [0.312-0.906]</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="D88" t="inlineStr">
         <is>
           <t>0.34 [0.076-0.738]</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>0.12 [0.052-0.241]</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>54 [33-132]</t>
         </is>
       </c>
-      <c r="F88">
+      <c r="G88">
         <v>10</v>
       </c>
-      <c r="G88">
+      <c r="H88">
         <v>97.19282347619048</v>
       </c>
-      <c r="H88">
+      <c r="I88">
         <v>15.53043716849818</v>
       </c>
-      <c r="I88">
+      <c r="J88">
         <v>7.79276119193918E-05</v>
       </c>
-      <c r="J88">
+      <c r="K88">
         <v>-52.292447</v>
       </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>7 [4-16]</t>
         </is>
       </c>
     </row>
@@ -4509,44 +4775,47 @@
           <t>Phi(~Time + I(Time^2))p(~temp + sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89">
+        <v>75</v>
+      </c>
+      <c r="C89" t="inlineStr">
         <is>
           <t>0.66 [0.316-0.911]</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="D89" t="inlineStr">
         <is>
           <t>0.31 [0.084-0.682]</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>0.12 [0.053-0.233]</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>58 [35-134]</t>
         </is>
       </c>
-      <c r="F89">
+      <c r="G89">
         <v>10</v>
       </c>
-      <c r="G89">
+      <c r="H89">
         <v>97.62572547619048</v>
       </c>
-      <c r="H89">
+      <c r="I89">
         <v>15.96333916849818</v>
       </c>
-      <c r="I89">
+      <c r="J89">
         <v>6.276071644727695E-05</v>
       </c>
-      <c r="J89">
+      <c r="K89">
         <v>-51.859545</v>
       </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>7 [4-17]</t>
         </is>
       </c>
     </row>
@@ -4556,44 +4825,47 @@
           <t>Phi(~Time + I(Time^2))p(~temp + wind + sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90">
+        <v>51</v>
+      </c>
+      <c r="C90" t="inlineStr">
         <is>
           <t>0.6 [0.298-0.898]</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="D90" t="inlineStr">
         <is>
           <t>0.43 [0.07-0.833]</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>0.12 [0.076-0.181]</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>47 [30-127]</t>
         </is>
       </c>
-      <c r="F90">
+      <c r="G90">
         <v>10</v>
       </c>
-      <c r="G90">
+      <c r="H90">
         <v>98.43271647619048</v>
       </c>
-      <c r="H90">
+      <c r="I90">
         <v>16.77033016849818</v>
       </c>
-      <c r="I90">
+      <c r="J90">
         <v>4.192296818587539E-05</v>
       </c>
-      <c r="J90">
+      <c r="K90">
         <v>-51.052553</v>
       </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>6 [4-16]</t>
         </is>
       </c>
     </row>
@@ -4603,44 +4875,47 @@
           <t>Phi(~Time + I(Time^2))p(~temp + wind + sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B91">
+        <v>81</v>
+      </c>
+      <c r="C91" t="inlineStr">
         <is>
           <t>0.63 [0.305-0.912]</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="D91" t="inlineStr">
         <is>
           <t>0.33 [0.072-0.737]</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>0.12 [0.051-0.238]</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>55 [34-134]</t>
         </is>
       </c>
-      <c r="F91">
+      <c r="G91">
         <v>11</v>
       </c>
-      <c r="G91">
+      <c r="H91">
         <v>101.722346</v>
       </c>
-      <c r="H91">
+      <c r="I91">
         <v>20.0599596923077</v>
       </c>
-      <c r="I91">
+      <c r="J91">
         <v>8.093158551909447E-06</v>
       </c>
-      <c r="J91">
+      <c r="K91">
         <v>-52.486733</v>
       </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>0 [0-1]</t>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>7 [4-17]</t>
         </is>
       </c>
     </row>
